--- a/projects/06-Credit-Card-Strategy-Analysis/Team 6 Credit Card Strategy.xlsx
+++ b/projects/06-Credit-Card-Strategy-Analysis/Team 6 Credit Card Strategy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19176\Desktop\BUS 356 Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6456FD1C-918C-4247-BA19-8A2B3DE5B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C19744F-EAD7-462C-96F5-48122404960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3497EA8-A4CD-8F44-B523-83C5CF8D3B8B}"/>
+    <workbookView xWindow="-9550" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{D3497EA8-A4CD-8F44-B523-83C5CF8D3B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="ExSum &amp; Dashboard" sheetId="8" r:id="rId1"/>
@@ -9627,15 +9627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
+      <xdr:colOff>138007</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:rowOff>176713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>474134</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:colOff>471594</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9650,8 +9650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135467" y="377372"/>
-          <a:ext cx="7112000" cy="13524895"/>
+          <a:off x="138007" y="376284"/>
+          <a:ext cx="7046444" cy="12840788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9724,41 +9724,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>To: CFO Michael Nugent</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>Subject: Portfolio Analysis</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Team Name: Team 6, MJ Sanacore, Neoma Khan, Terrence Ho, Christina Alex</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2000">
             <a:effectLst/>
@@ -10505,8 +10471,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21352085" y="8232139"/>
-              <a:ext cx="5347548" cy="4670214"/>
+              <a:off x="21413045" y="8181339"/>
+              <a:ext cx="5370408" cy="4634654"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11602,7 +11568,7 @@
   </sheetPr>
   <dimension ref="L2:AJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
